--- a/biology/Botanique/Quararibea_guianensis/Quararibea_guianensis.xlsx
+++ b/biology/Botanique/Quararibea_guianensis/Quararibea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quararibea guianensis est une espèce d'arbre néotropicale, appartenant à la famille des Malvaceae (anciennement des Bombacaceae). Il s'agit de l'espèce type du genre Quararibea Aubl..
 En Guyane, on le désigne sous le nom générique de bois-lélé (créole).
-Au Suriname, on l'appelle Maipoelie, Cacao-oelie, Taga-hoedoe (Sranan tongo), Apezoeloc (Karib), Kibiwara wesjilikodo (Arawak), Kirikiri (Aukan)[3]. Au Brésil, on le nomme Inajá-rana[4].
+Au Suriname, on l'appelle Maipoelie, Cacao-oelie, Taga-hoedoe (Sranan tongo), Apezoeloc (Karib), Kibiwara wesjilikodo (Arawak), Kirikiri (Aukan). Au Brésil, on le nomme Inajá-rana.
 </t>
         </is>
       </c>
@@ -513,19 +525,21 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quararibea guianensis est un petit arbre à branches verticillées.
 Ses feuilles alternes, sont de forme ovales-oblongues, aiguës, presque glabres, à marge entière, à pétiole court, et avec la nervure médiane de couleur foncée sur la face abaxiale.
 Les fleurs sont solitaires ou réunies en petit nombre dans des inflorescences courtes disposées à l'aisselle des feuilles. Le pédicelle est court. Le calice est long, étroit, jaunâtre, généralement divisé en 3 lobes irréguliers. Les pétales blancs sont linéaires, longs de 6-7,5(8) cm. Les étamines sont fusionnées en un tube staminal long de 6 à 1,2 cm, surmonté de 5 petites dents, souvent incurvé, avec 30 thèques sessiles, dispersées le long de la partie supérieure. L'ovaire contient 2 loges, et est surmonté d'un style simple, avec un stigmate capité. 
 Le fruit à chair fibreuse, est inclus à plus de la moitié dans le calice dilaté. Il contient 1 ou 2 graines.
-Les feuilles séchées dégagent une forte odeur de fenugrec (Trigonella foenum-graecum L.)[3],[5].
+Les feuilles séchées dégagent une forte odeur de fenugrec (Trigonella foenum-graecum L.),.
 Le pollen de Quararibea guianensis a été étudié. Il s'agit de gros grains isopolaires, à symétrie radiale, sub-oblée, de section circulaire, à 3 pores, à surface fovéolée largement réticulée. Ses dimensions sont :
 axe polaire (P) : 54 ± 0,4 (51 - 55) µm
 axe équatorial (E) : 62 ± 0,8 (5 964) µm
 relation entre les mesures des axes polaire et équatorial (P/E) : 0,87
 nombre, position et caractère des ouvertures : 344.
-L'exine est stratifiée avec une épaissaeur de 2,7 µm de sexine, puis 0,9 µm de nexine. Les lumières sont plus petites près des pores et les parois sont plus épaisses et pluribaculées, atteignant un motif fovéolé. L'exine, autour des pores, est plus épaisse et plus proéminente, formant des aspérités, avec un anneau entourant l'ouverture psyllé et épais[4].
+L'exine est stratifiée avec une épaissaeur de 2,7 µm de sexine, puis 0,9 µm de nexine. Les lumières sont plus petites près des pores et les parois sont plus épaisses et pluribaculées, atteignant un motif fovéolé. L'exine, autour des pores, est plus épaisse et plus proéminente, formant des aspérités, avec un anneau entourant l'ouverture psyllé et épais.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Quararibea guianensis à l'Est dans les Guyanes et la Basse Amazonie, ainsi que dans l'Ouest amazonien[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Quararibea guianensis à l'Est dans les Guyanes et la Basse Amazonie, ainsi que dans l'Ouest amazonien.
 </t>
         </is>
       </c>
@@ -585,10 +601,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quararibea guianensis affectionne les rives des cours d'eau, où il fleurit abondamment tout au long de l'année[7]. On le rencontre notamment dans les varzea et les pinotières à Euterpe oleracea[8].
-Quararibea guianensis est la plante hôte de Anastrepha obliqua et de Neosilba zadolicha (Lonchaeidae)[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quararibea guianensis affectionne les rives des cours d'eau, où il fleurit abondamment tout au long de l'année. On le rencontre notamment dans les varzea et les pinotières à Euterpe oleracea.
+Quararibea guianensis est la plante hôte de Anastrepha obliqua et de Neosilba zadolicha (Lonchaeidae).
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux verticillés de Quararibea guianensis peuvent servir à fabriquer des lélés.
 </t>
@@ -648,9 +668,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Eriotheca globosa[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Eriotheca globosa : 
 « QUARARIBEA Guianenſis. (Tabula 278.) 
 Frutex octo aut decem-pedalis, ramoſus ; ramis rectis. Folia alterna, ovato-oblonga, acuta, glabra, integerrima, brevi petiolata. Stipule binæ, decidual. Flores axillares, bini, terni, quaterni aut quini, pedunculati ; pedunculus florum, ſæpiùs ſquamulis &amp; glandulis viridibus munitur. 
 Florebat, fructumque ſerebat Maio. 
